--- a/biology/Zoologie/Girafe_de_Rothschild/Girafe_de_Rothschild.xlsx
+++ b/biology/Zoologie/Girafe_de_Rothschild/Girafe_de_Rothschild.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La girafe de Rothschild (Giraffa camelopardalis rothschildi) est une sous-espèce de la girafe du Nord.  Cette espèce de girafes est l'une des plus menacées avec moins de 1 600 spécimens répertoriés dans le monde, dont 600 au Kenya[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La girafe de Rothschild (Giraffa camelopardalis rothschildi) est une sous-espèce de la girafe du Nord.  Cette espèce de girafes est l'une des plus menacées avec moins de 1 600 spécimens répertoriés dans le monde, dont 600 au Kenya.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les girafes de Rothschild sont identifiables grâce à leur pelage qui mélange des taches brun orangé un peu floues sur un fond crème. Plus grandes que les autres espèces de girafes, elles ont le bas des pattes immaculé. Elles sont également les seules à posséder cinq ossicônes[2].
-L'Union internationale pour la conservation de la nature (UICN) classe cette espèce sur la liste rouge des espèces menacées. Selon eux, il reste moins de 670 spécimens dans la nature, notamment au Kenya et en Ouganda[3].
-Elles doivent leur nom à Lord Walter Rothschild, un zoologie britannique, qui découvrit l'espèce lors d'une expédition en Afrique de l'Est, au début des années 1900[2].
-Elles sont également appelées girafe de Baringo, du fait de leur attroupement d'origine sur la péninsule du lac Baringo au Kenya[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les girafes de Rothschild sont identifiables grâce à leur pelage qui mélange des taches brun orangé un peu floues sur un fond crème. Plus grandes que les autres espèces de girafes, elles ont le bas des pattes immaculé. Elles sont également les seules à posséder cinq ossicônes.
+L'Union internationale pour la conservation de la nature (UICN) classe cette espèce sur la liste rouge des espèces menacées. Selon eux, il reste moins de 670 spécimens dans la nature, notamment au Kenya et en Ouganda.
+Elles doivent leur nom à Lord Walter Rothschild, un zoologie britannique, qui découvrit l'espèce lors d'une expédition en Afrique de l'Est, au début des années 1900.
+Elles sont également appelées girafe de Baringo, du fait de leur attroupement d'origine sur la péninsule du lac Baringo au Kenya. 
 </t>
         </is>
       </c>
